--- a/xlsx/韩琦_intext.xlsx
+++ b/xlsx/韩琦_intext.xlsx
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%B6%E8%A6%AA</t>
   </si>
   <si>
-    <t>父親</t>
+    <t>父亲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E5%8D%8E</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E8%A6%AA</t>
   </si>
   <si>
-    <t>母親</t>
+    <t>母亲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E5%AD%90</t>
   </si>
   <si>
-    <t>兒子</t>
+    <t>儿子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%BF%A0%E5%BD%A6</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E4%BE%82%E5%86%91</t>
   </si>
   <si>
-    <t>韓侂冑</t>
+    <t>韩侂冑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E6%8B%B1%E8%BE%B0</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%85%B6%E6%9B%86%E6%96%B0%E6%94%BF</t>
   </si>
   <si>
-    <t>慶曆新政</t>
+    <t>庆历新政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E7%A5%90</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%BD%8D</t>
   </si>
   <si>
-    <t>蘇轍</t>
+    <t>苏辙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B0%E7%9B%B8</t>
